--- a/path_para.xlsx
+++ b/path_para.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/dusom_morey/Data/Lab/Delin/Projects/ENIGMA_PTSD-MDD/Scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/dusom_morey/Data/Lab/Delin/Projects/IBMMA/IBMMA-v0.1.0-beta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D129A848-B2BA-F94D-9702-A18F463BC1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DABEEC1-A06C-564C-B64E-79D0A06E5656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="1920" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{038BEE96-9B71-AB4F-BCF5-EF866A17B3C5}"/>
+    <workbookView xWindow="25380" yWindow="2480" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{038BEE96-9B71-AB4F-BCF5-EF866A17B3C5}"/>
   </bookViews>
   <sheets>
     <sheet name="demographic_clinical" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="predictors" sheetId="4" r:id="rId4"/>
     <sheet name="models" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>forPGC</t>
   </si>
@@ -119,12 +120,6 @@
     <t>MASK</t>
   </si>
   <si>
-    <t>CALCULATION</t>
-  </si>
-  <si>
-    <t>MASK_1</t>
-  </si>
-  <si>
     <t>VAR</t>
   </si>
   <si>
@@ -137,9 +132,6 @@
     <t>FORMULA</t>
   </si>
   <si>
-    <t>/tmp/isilon/morey/lab/dusom_morey/new_halfpipe/Outputs/atlas_conn</t>
-  </si>
-  <si>
     <t>_feature-corrMatrix_atlas-schaefer2011Combined_desc-correlation_matrix.tsv</t>
   </si>
   <si>
@@ -156,13 +148,64 @@
   </si>
   <si>
     <t>/tmp/isilon/morey/lab/dusom_morey/new_halfpipe/Outputs/falff_reho</t>
+  </si>
+  <si>
+    <t>/tmp/isilon/morey/lab/dusom_morey/courtney_cerebellum/enigma_Groningen/acapulco/output</t>
+  </si>
+  <si>
+    <t>/tmp/isilon/morey/lab/dusom_morey/courtney_cerebellum/enigma_UMN_Lissek/acapulco/output</t>
+  </si>
+  <si>
+    <t>/tmp/isilon/morey/lab/dusom_morey/courtney_cerebellum/enigma_UWMadison_Grupe/acapulco/output</t>
+  </si>
+  <si>
+    <t>atlas_cerebellum_SFC</t>
+  </si>
+  <si>
+    <t>_icareg_preproc_bold.nii.gz</t>
+  </si>
+  <si>
+    <t>_n4_mni_seg_post_inverse.nii.gz</t>
+  </si>
+  <si>
+    <t>/tmp/isilon/morey/lab/dusom_morey/Aurelio_preproc/atlases/tpl-MNI152NLin2009cAsym_atlas-schaefer2011Combined_dseg.nii.gz</t>
+  </si>
+  <si>
+    <t>MEASURE</t>
+  </si>
+  <si>
+    <t>/tmp/isilon/morey/lab/dusom_morey/new_halfpipe/Outputs/preproc4d/ica</t>
+  </si>
+  <si>
+    <t>ROI1</t>
+  </si>
+  <si>
+    <t>ROI2</t>
+  </si>
+  <si>
+    <t>Functional_Connectivity</t>
+  </si>
+  <si>
+    <t>MYROI</t>
+  </si>
+  <si>
+    <t>Model_03</t>
+  </si>
+  <si>
+    <t>MY_ROIs.xlsx</t>
+  </si>
+  <si>
+    <t>atlas_cerebellum_SFC_MyROIs</t>
+  </si>
+  <si>
+    <t>lmer(Yvar ~ GROUP * SEX + AGE +  (1|SITE))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,6 +218,12 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -547,12 +596,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.33203125" customWidth="1"/>
+    <col min="1" max="1" width="104.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -584,10 +633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5649049-8F43-C644-BE8E-BC7F6C3DA9C9}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,17 +654,41 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B3">
+      <c r="B6">
         <v>0</v>
       </c>
     </row>
@@ -626,21 +699,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE13D4D-D43E-DC44-BD6B-938606889253}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="67.5" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="6" width="31.83203125" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" customWidth="1"/>
+    <col min="3" max="3" width="62.5" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" customWidth="1"/>
+    <col min="5" max="5" width="103.1640625" customWidth="1"/>
+    <col min="6" max="8" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -654,16 +729,22 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -676,21 +757,64 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="G3">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
     </row>
@@ -704,7 +828,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,16 +838,16 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -790,10 +914,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D37BC0-3E1B-784D-8CA9-E7E89081A788}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -806,7 +930,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
@@ -817,7 +941,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -825,16 +949,28 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/path_para.xlsx
+++ b/path_para.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/dusom_morey/Data/Lab/Delin/Projects/ENIGMA_PTSD-MDD/Scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Delin\Projects\IBMMA\IBMMA_v0.1.1-beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D129A848-B2BA-F94D-9702-A18F463BC1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200979F6-2DD1-4E87-A8BA-3D0B6AE0D91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="1920" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{038BEE96-9B71-AB4F-BCF5-EF866A17B3C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{038BEE96-9B71-AB4F-BCF5-EF866A17B3C5}"/>
   </bookViews>
   <sheets>
     <sheet name="demographic_clinical" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="predictors" sheetId="4" r:id="rId4"/>
     <sheet name="models" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>forPGC</t>
   </si>
@@ -56,12 +57,6 @@
     <t>_feature-fALFF_mask.nii.gz</t>
   </si>
   <si>
-    <t>/tmp/isilon/morey/lab/dusom_morey/new_halfpipe/Outputs/ENIGMA-PGC_master_v1.1_TR&amp;fID_v1.xlsx</t>
-  </si>
-  <si>
-    <t>_feature-corrMatrix_atlas-schaefer2011Combined_timeseries.json</t>
-  </si>
-  <si>
     <t>site3</t>
   </si>
   <si>
@@ -119,12 +114,6 @@
     <t>MASK</t>
   </si>
   <si>
-    <t>CALCULATION</t>
-  </si>
-  <si>
-    <t>MASK_1</t>
-  </si>
-  <si>
     <t>VAR</t>
   </si>
   <si>
@@ -137,32 +126,62 @@
     <t>FORMULA</t>
   </si>
   <si>
-    <t>/tmp/isilon/morey/lab/dusom_morey/new_halfpipe/Outputs/atlas_conn</t>
-  </si>
-  <si>
-    <t>_feature-corrMatrix_atlas-schaefer2011Combined_desc-correlation_matrix.tsv</t>
-  </si>
-  <si>
     <t>lmer(Yvar ~ GROUP + AGE + SEX + (1|SITE))</t>
   </si>
   <si>
-    <t>corrMatrix_atlas-schaefer2011Combined</t>
-  </si>
-  <si>
     <t>Model_02</t>
   </si>
   <si>
     <t>lmer(Yvar ~ GROUP * AGE + SEX + (1|SITE))</t>
   </si>
   <si>
-    <t>/tmp/isilon/morey/lab/dusom_morey/new_halfpipe/Outputs/falff_reho</t>
+    <t>MEASURE</t>
+  </si>
+  <si>
+    <t>ROI1</t>
+  </si>
+  <si>
+    <t>ROI2</t>
+  </si>
+  <si>
+    <t>MYROI</t>
+  </si>
+  <si>
+    <t>Model_03</t>
+  </si>
+  <si>
+    <t>lmer(Yvar ~ GROUP * SEX + AGE +  (1|SITE))</t>
+  </si>
+  <si>
+    <t>MASK1</t>
+  </si>
+  <si>
+    <t>/mnt/munin/Morey/Lab/Delin/Projects/IBMMA/Data/ENIGMA-PGC_master_v1.1_TR&amp;fID_v1.xlsx</t>
+  </si>
+  <si>
+    <t>/mnt/munin/Morey/Lab/Delin/Projects/IBMMA/Data/falff_reho</t>
+  </si>
+  <si>
+    <t>/mnt/munin/Morey/Lab/Delin/Projects/IBMMA/Data/brain_mask.nii</t>
+  </si>
+  <si>
+    <t>reHo</t>
+  </si>
+  <si>
+    <t>_feature-reHo_reho.nii.gz</t>
+  </si>
+  <si>
+    <t>_feature-reHo_reho.json</t>
+  </si>
+  <si>
+    <t>_feature-reHo_mask.nii.gz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,6 +194,12 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -547,28 +572,28 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="68.33203125" customWidth="1"/>
+    <col min="1" max="1" width="77.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -584,38 +609,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5649049-8F43-C644-BE8E-BC7F6C3DA9C9}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="85.1640625" customWidth="1"/>
+    <col min="1" max="1" width="51.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
         <v>0</v>
       </c>
     </row>
@@ -626,44 +643,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE13D4D-D43E-DC44-BD6B-938606889253}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="67.5" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="6" width="31.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.9140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="54.75" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.4140625" customWidth="1"/>
+    <col min="8" max="8" width="7.25" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -676,21 +707,30 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
     </row>
@@ -704,80 +744,80 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="19.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -790,51 +830,63 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D37BC0-3E1B-784D-8CA9-E7E89081A788}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3">
+      <c r="C4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>